--- a/data/campus_classrooms_labs_simplified.xlsx
+++ b/data/campus_classrooms_labs_simplified.xlsx
@@ -1,27 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\product\premium\Time-table-generator\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32D8C0-4B2C-4AC0-8EE4-A5E9457DE91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Classrooms" sheetId="1" r:id="rId1"/>
     <sheet name="All Labs" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="281">
   <si>
     <t>Room Name</t>
   </si>
@@ -188,6 +195,9 @@
     <t>ME 102</t>
   </si>
   <si>
+    <t>MECH</t>
+  </si>
+  <si>
     <t>ME 103</t>
   </si>
   <si>
@@ -521,12 +531,18 @@
     <t>Energy and Thermal Product Development Lab</t>
   </si>
   <si>
+    <t>Fundamentals of MECHal Engg Lab</t>
+  </si>
+  <si>
     <t>Home Appliances Lab</t>
   </si>
   <si>
     <t>Metallurgy Lab</t>
   </si>
   <si>
+    <t>Soil MECH Lab</t>
+  </si>
+  <si>
     <t>Thermal Engineering lab</t>
   </si>
   <si>
@@ -662,9 +678,6 @@
     <t>Garment Construction Lab 1</t>
   </si>
   <si>
-    <t>FASHION</t>
-  </si>
-  <si>
     <t>Garment Construction Lab 2</t>
   </si>
   <si>
@@ -858,27 +871,24 @@
   </si>
   <si>
     <t>Molecular Biology Lab</t>
-  </si>
-  <si>
-    <t>MECH</t>
-  </si>
-  <si>
-    <t>Fundamentals of MECHal Engg Lab</t>
-  </si>
-  <si>
-    <t>Soil MECH Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -886,13 +896,166 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="40">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -907,8 +1070,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6FF"/>
-        <bgColor rgb="FFE7E6FF"/>
+        <fgColor rgb="FFFFF4E6"/>
+        <bgColor rgb="FFFFF4E6"/>
       </patternFill>
     </fill>
     <fill>
@@ -919,14 +1082,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE6F7FF"/>
-        <bgColor rgb="FFE6F7FF"/>
+        <fgColor rgb="FFE7E6FF"/>
+        <bgColor rgb="FFE7E6FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF4E6"/>
-        <bgColor rgb="FFFFF4E6"/>
+        <fgColor rgb="FFE6F7FF"/>
+        <bgColor rgb="FFE6F7FF"/>
       </patternFill>
     </fill>
     <fill>
@@ -941,8 +1104,194 @@
         <bgColor rgb="FFF0FFE6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -965,9 +1314,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1011,17 +1602,61 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1306,26 +1941,27 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A135" activePane="bottomLeft" state="frozen"/>
+      <selection/>
       <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.6" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1334,10 +1970,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1358,42 +1994,42 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1678,844 +2314,847 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B51" s="9" t="s">
-        <v>279</v>
+      <c r="B51" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>279</v>
-      </c>
     </row>
     <row r="53" spans="1:2">
-      <c r="A53" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B53" s="9" t="s">
-        <v>279</v>
+      <c r="A53" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>279</v>
+      <c r="A54" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B55" s="9" t="s">
-        <v>279</v>
+      <c r="A55" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="9" t="s">
-        <v>279</v>
+      <c r="A56" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B57" s="9" t="s">
-        <v>279</v>
+      <c r="A57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="9" t="s">
-        <v>279</v>
+      <c r="A58" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>279</v>
+      <c r="A59" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="9" t="s">
-        <v>279</v>
+      <c r="A60" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B61" s="9" t="s">
-        <v>279</v>
+      <c r="A61" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B62" s="9" t="s">
-        <v>279</v>
+      <c r="A62" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>279</v>
+      <c r="A63" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2">
-      <c r="A64" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B64" s="9" t="s">
-        <v>279</v>
+      <c r="A64" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>279</v>
+      <c r="A65" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2">
-      <c r="A66" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B66" s="9" t="s">
-        <v>279</v>
+      <c r="A66" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="67" spans="1:2">
-      <c r="A67" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B67" s="9" t="s">
-        <v>279</v>
+      <c r="A67" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B68" s="9" t="s">
-        <v>279</v>
+      <c r="A68" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B69" s="9" t="s">
-        <v>279</v>
+      <c r="A69" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" s="7" t="s">
+      <c r="A72" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="74" spans="1:2">
-      <c r="A74" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B74" s="7" t="s">
+      <c r="A74" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="B76" s="7" t="s">
+      <c r="A76" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B77" s="7" t="s">
+      <c r="A77" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="78" spans="1:2">
-      <c r="A78" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B78" s="7" t="s">
+      <c r="A78" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:2">
-      <c r="A80" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="B80" s="7" t="s">
+      <c r="A80" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="81" spans="1:2">
-      <c r="A81" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B81" s="7" t="s">
+      <c r="A81" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:2">
-      <c r="A82" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B82" s="7" t="s">
+      <c r="A82" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B83" s="7" t="s">
+      <c r="A83" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="7" t="s">
+      <c r="A84" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="7" t="s">
+      <c r="A85" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:2">
-      <c r="A87" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="7" t="s">
+      <c r="A87" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:2">
-      <c r="A88" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="7" t="s">
+      <c r="A88" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="7" t="s">
+      <c r="A89" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:2">
-      <c r="A90" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="7" t="s">
+      <c r="A90" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:2">
-      <c r="A92" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="B92" s="7" t="s">
+      <c r="A92" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B93" s="7" t="s">
+      <c r="A93" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:2">
-      <c r="A94" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B94" s="7" t="s">
+      <c r="A94" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="95" spans="1:2">
-      <c r="A95" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="7" t="s">
+      <c r="A95" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B98" s="7" t="s">
+      <c r="A98" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:2">
-      <c r="A100" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B100" s="7" t="s">
+      <c r="A100" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="101" spans="1:2">
-      <c r="A101" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B101" s="7" t="s">
+      <c r="A101" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B101" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:2">
-      <c r="A103" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B103" s="7" t="s">
+      <c r="A103" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B103" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B104" s="7" t="s">
+      <c r="A104" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B104" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B105" s="7" t="s">
+      <c r="A105" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B105" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B106" s="7" t="s">
+      <c r="A106" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B106" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B107" s="7" t="s">
+      <c r="A107" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B107" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B108" s="7" t="s">
+      <c r="A108" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B108" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B109" s="7" t="s">
+      <c r="A109" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B109" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:2">
-      <c r="A110" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B110" s="7" t="s">
+      <c r="A110" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B110" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="7" t="s">
+      <c r="A111" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B111" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:2">
-      <c r="A114" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="7" t="s">
+      <c r="A114" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:2">
-      <c r="A115" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="7" t="s">
+      <c r="A115" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="116" spans="1:2">
-      <c r="A116" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="7" t="s">
+      <c r="A116" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="7" t="s">
+      <c r="A117" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B117" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:2">
-      <c r="A118" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="7" t="s">
+      <c r="A118" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:2">
-      <c r="A119" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="7" t="s">
+      <c r="A119" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B119" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:2">
-      <c r="A120" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="7" t="s">
+      <c r="A120" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B120" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="7" t="s">
+      <c r="A121" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B121" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:2">
-      <c r="A123" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="7" t="s">
+      <c r="A123" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A130" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75">
+    <row r="1" ht="15.6" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>279</v>
+      <c r="A2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="A6" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>279</v>
+      <c r="A8" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="A9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="A11" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B14" s="3" t="s">
+      <c r="A14" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="3" t="s">
+      <c r="A16" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="3" t="s">
+      <c r="A17" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>279</v>
+      <c r="A21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>279</v>
+      <c r="A22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>279</v>
+      <c r="A23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>5</v>
@@ -2523,7 +3162,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>5</v>
@@ -2531,23 +3170,23 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="A27" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>5</v>
@@ -2555,7 +3194,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>5</v>
@@ -2563,47 +3202,47 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>279</v>
+      <c r="A31" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>279</v>
+      <c r="A33" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>279</v>
+      <c r="A34" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -2611,23 +3250,23 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>5</v>
@@ -2635,71 +3274,71 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>279</v>
+      <c r="A40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>279</v>
+      <c r="A42" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4" t="s">
-        <v>281</v>
+        <v>170</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>279</v>
+      <c r="A44" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="B46" s="7" t="s">
+      <c r="A46" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>5</v>
@@ -2707,7 +3346,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>5</v>
@@ -2715,7 +3354,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>5</v>
@@ -2723,7 +3362,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>5</v>
@@ -2731,127 +3370,127 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:2">
-      <c r="A52" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B52" s="9" t="s">
-        <v>279</v>
+      <c r="A52" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="54" spans="1:2">
-      <c r="A54" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="7" t="s">
+      <c r="A54" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:2">
-      <c r="A56" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="B56" s="7" t="s">
+      <c r="A56" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="B58" s="7" t="s">
+      <c r="A58" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B59" s="7" t="s">
+      <c r="A59" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="60" spans="1:2">
-      <c r="A60" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="7" t="s">
+      <c r="A60" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
-      <c r="A63" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B63" s="9" t="s">
-        <v>279</v>
+      <c r="A63" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
-      <c r="A65" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="B65" s="9" t="s">
-        <v>279</v>
+      <c r="A65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>5</v>
@@ -2859,7 +3498,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>5</v>
@@ -2867,79 +3506,79 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:2">
-      <c r="A70" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="B70" s="7" t="s">
+      <c r="A70" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="A72" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B72" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B73" s="3" t="s">
+      <c r="A73" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B73" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" s="3" t="s">
+      <c r="A75" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="B75" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B76" s="3" t="s">
+      <c r="A76" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="B76" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>5</v>
@@ -2947,23 +3586,23 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="B79" s="7" t="s">
+      <c r="A79" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>5</v>
@@ -2971,7 +3610,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>5</v>
@@ -2979,7 +3618,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>5</v>
@@ -2987,39 +3626,39 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:2">
-      <c r="A84" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>279</v>
+      <c r="A84" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:2">
-      <c r="A86" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B86" s="7" t="s">
+      <c r="A86" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>5</v>
@@ -3027,7 +3666,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>5</v>
@@ -3035,47 +3674,47 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>213</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91" spans="1:2">
-      <c r="A91" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="B91" s="7" t="s">
+      <c r="A91" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B92" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B93" s="9" t="s">
-        <v>279</v>
+      <c r="A93" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B94" s="5" t="s">
         <v>5</v>
@@ -3083,47 +3722,47 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B95" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:2">
-      <c r="A96" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="B96" s="7" t="s">
+      <c r="A96" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B96" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2">
-      <c r="A97" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="B97" s="7" t="s">
+      <c r="A97" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="B97" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="98" spans="1:2">
-      <c r="A98" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B98" s="9" t="s">
-        <v>279</v>
+      <c r="A98" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="99" spans="1:2">
-      <c r="A99" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B99" s="7" t="s">
+      <c r="A99" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B99" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>5</v>
@@ -3131,39 +3770,39 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="102" spans="1:2">
-      <c r="A102" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" s="7" t="s">
+      <c r="A102" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B102" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="104" spans="1:2">
-      <c r="A104" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="B104" s="9" t="s">
-        <v>279</v>
+      <c r="A104" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="4" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>5</v>
@@ -3171,23 +3810,23 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="4" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="B107" s="9" t="s">
-        <v>279</v>
+      <c r="A107" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="4" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>5</v>
@@ -3195,7 +3834,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="4" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>5</v>
@@ -3203,7 +3842,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="4" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>5</v>
@@ -3211,31 +3850,31 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" s="4" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="112" spans="1:2">
-      <c r="A112" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B112" s="7" t="s">
+      <c r="A112" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B112" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:2">
-      <c r="A113" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="B113" s="7" t="s">
+      <c r="A113" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B113" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="4" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>5</v>
@@ -3243,7 +3882,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" s="4" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>5</v>
@@ -3251,23 +3890,23 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="4" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="117" spans="1:2">
-      <c r="A117" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="B117" s="9" t="s">
-        <v>279</v>
+      <c r="A117" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>5</v>
@@ -3275,7 +3914,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" s="4" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>5</v>
@@ -3283,7 +3922,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" s="4" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>5</v>
@@ -3291,55 +3930,55 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" s="4" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:2">
-      <c r="A122" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="B122" s="7" t="s">
+      <c r="A122" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B122" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="4" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:2">
-      <c r="A124" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B124" s="7" t="s">
+      <c r="A124" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B124" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:2">
       <c r="A125" s="4" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="126" spans="1:2">
-      <c r="A126" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:2">
       <c r="A127" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>5</v>
@@ -3347,63 +3986,63 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="4" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:2">
-      <c r="A129" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="B129" s="3" t="s">
+      <c r="A129" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B129" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:2">
-      <c r="A130" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B130" s="3" t="s">
+      <c r="A130" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="B130" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:2">
       <c r="A131" s="4" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B131" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>279</v>
+      <c r="A132" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="133" spans="1:2">
-      <c r="A133" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="B133" s="7" t="s">
+      <c r="A133" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B133" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:2">
-      <c r="A134" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>279</v>
+      <c r="A134" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="135" spans="1:2">
       <c r="A135" s="4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B135" s="5" t="s">
         <v>5</v>
@@ -3411,39 +4050,39 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" s="4" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B136" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
-      <c r="A137" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>279</v>
+      <c r="A137" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:2">
       <c r="A138" s="12" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:2">
-      <c r="A139" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>279</v>
+      <c r="A139" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="4" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B140" s="5" t="s">
         <v>5</v>
@@ -3451,7 +4090,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" s="4" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B141" s="5" t="s">
         <v>5</v>
@@ -3459,7 +4098,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" s="4" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>5</v>
@@ -3467,7 +4106,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" s="4" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B143" s="5" t="s">
         <v>5</v>
@@ -3475,7 +4114,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B144" s="5" t="s">
         <v>5</v>
@@ -3483,7 +4122,7 @@
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="4" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B145" s="5" t="s">
         <v>5</v>
@@ -3491,47 +4130,47 @@
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B146" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:2">
-      <c r="A147" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="B147" s="7" t="s">
+      <c r="A147" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B147" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B148" s="7" t="s">
+      <c r="A148" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B148" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="4" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B149" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:2">
-      <c r="A150" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="B150" s="7" t="s">
+      <c r="A150" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="B150" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="151" spans="1:2">
       <c r="A151" s="4" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B151" s="5" t="s">
         <v>5</v>
@@ -3539,29 +4178,30 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B152" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:2">
-      <c r="A153" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="B153" s="7" t="s">
+      <c r="A153" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B153" s="9" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="154" spans="1:2">
-      <c r="A154" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B154" s="7" t="s">
+      <c r="A154" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B154" s="9" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>